--- a/gestion_notes/liste_etudiants.xlsx
+++ b/gestion_notes/liste_etudiants.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMART\Desktop\gestionNotes\GestionNotes\gestion_notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C959F9-03ED-48C6-9CC3-618F593D1153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{756F3C37-6C55-4F11-BD2D-36C6FD91693D}"/>
+    <workbookView windowWidth="20490" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>matricule</t>
   </si>
@@ -36,105 +38,614 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>2024TEST5</t>
-  </si>
-  <si>
-    <t>2024TEST6</t>
-  </si>
-  <si>
-    <t>2024TEST7</t>
-  </si>
-  <si>
-    <t>2024TEST8</t>
-  </si>
-  <si>
-    <t>2024TEST9</t>
-  </si>
-  <si>
-    <t>Landry</t>
-  </si>
-  <si>
-    <t>JOSEE</t>
-  </si>
-  <si>
-    <t>KAYSER</t>
-  </si>
-  <si>
-    <t>WILFRED</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>landry@gmail.com</t>
-  </si>
-  <si>
-    <t>josee@gmail.com</t>
-  </si>
-  <si>
-    <t>kayser@gmail.com</t>
-  </si>
-  <si>
-    <t>wilfred@gmail.com</t>
-  </si>
-  <si>
-    <t>louis@gmail.com</t>
-  </si>
-  <si>
-    <t>lan_1234</t>
-  </si>
-  <si>
-    <t>jos_1234</t>
-  </si>
-  <si>
-    <t>kay_1234</t>
-  </si>
-  <si>
-    <t>wil_1234</t>
-  </si>
-  <si>
-    <t>lou_1234</t>
+    <t>date_naissance</t>
+  </si>
+  <si>
+    <t>sexe</t>
+  </si>
+  <si>
+    <t>nationalite</t>
+  </si>
+  <si>
+    <t>2021ISE-1</t>
+  </si>
+  <si>
+    <t>Hamissou ALAJI BOUHARI</t>
+  </si>
+  <si>
+    <t>ise1@example.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>niger</t>
+  </si>
+  <si>
+    <t>2021ISE-2</t>
+  </si>
+  <si>
+    <t>Julien Parfait ASSALA BIDIAS</t>
+  </si>
+  <si>
+    <t>ise2@example.com</t>
+  </si>
+  <si>
+    <t>cameroun</t>
+  </si>
+  <si>
+    <t>2021ISE-3</t>
+  </si>
+  <si>
+    <t>Alioune CISSE</t>
+  </si>
+  <si>
+    <t>ise3@example.com</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>senegal</t>
+  </si>
+  <si>
+    <t>2021ISE-4</t>
+  </si>
+  <si>
+    <t>Bonouhion Ives Ulrich DABIRE</t>
+  </si>
+  <si>
+    <t>ise4@example.com</t>
+  </si>
+  <si>
+    <t>burkina faso</t>
+  </si>
+  <si>
+    <t>2021ISE-5</t>
+  </si>
+  <si>
+    <t>Cheikh Tidiane DIAGNE</t>
+  </si>
+  <si>
+    <t>ise5@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-6</t>
+  </si>
+  <si>
+    <t>Ibrahima DIALLO</t>
+  </si>
+  <si>
+    <t>ise6@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-7</t>
+  </si>
+  <si>
+    <t>Salah Mahamane DIALLO</t>
+  </si>
+  <si>
+    <t>ise7@example.com</t>
+  </si>
+  <si>
+    <t>mali</t>
+  </si>
+  <si>
+    <t>2021ISE-8</t>
+  </si>
+  <si>
+    <t>Cheikh Ahmed Tidiane Chérif DIOP</t>
+  </si>
+  <si>
+    <t>ise8@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-9</t>
+  </si>
+  <si>
+    <t>Souleye DIOUF</t>
+  </si>
+  <si>
+    <t>ise9@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-10</t>
+  </si>
+  <si>
+    <t>Mame Mor DIOUM</t>
+  </si>
+  <si>
+    <t>ise10@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-11</t>
+  </si>
+  <si>
+    <t>Abdoulaye Blondin DJIBA</t>
+  </si>
+  <si>
+    <t>ise11@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-12</t>
+  </si>
+  <si>
+    <t>Moussa FALL</t>
+  </si>
+  <si>
+    <t>ise12@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-13</t>
+  </si>
+  <si>
+    <t>Elhadji Yaya LY</t>
+  </si>
+  <si>
+    <t>ise13@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-14</t>
+  </si>
+  <si>
+    <t>Providence MBAINDIGUIM</t>
+  </si>
+  <si>
+    <t>ise14@example.com</t>
+  </si>
+  <si>
+    <t>tchad</t>
+  </si>
+  <si>
+    <t>2021ISE-15</t>
+  </si>
+  <si>
+    <t>Jean MOYENGA</t>
+  </si>
+  <si>
+    <t>ise15@example.com</t>
+  </si>
+  <si>
+    <t>burkina_faso</t>
+  </si>
+  <si>
+    <t>2021ISE-16</t>
+  </si>
+  <si>
+    <t>Garmy SAMB</t>
+  </si>
+  <si>
+    <t>ise16@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-17</t>
+  </si>
+  <si>
+    <t>Daouda SISSOKO</t>
+  </si>
+  <si>
+    <t>ise17@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-18</t>
+  </si>
+  <si>
+    <t>Sié Charles SOU</t>
+  </si>
+  <si>
+    <t>ise18@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-19</t>
+  </si>
+  <si>
+    <t>Serigne Mbaye THIAM</t>
+  </si>
+  <si>
+    <t>ise19@example.com</t>
+  </si>
+  <si>
+    <t>2021ISE-20</t>
+  </si>
+  <si>
+    <t>Amath Ndama THIAM</t>
+  </si>
+  <si>
+    <t>ise20@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Garamond"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,27 +653,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -211,7 +1036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,26 +1069,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -296,23 +1104,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,121 +1245,528 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C3232-5C85-4E22-85D1-72FDFDF0DF9C}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="33.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="6.57142857142857" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="34.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>34700</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>35730</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35599</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D5" s="5">
+        <v>36791</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>35583</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
+        <v>35435</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5">
+        <v>31047</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5">
+        <v>36162</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5">
+        <v>35699</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5">
+        <v>35210</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5">
+        <v>35343</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36241</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5">
+        <v>33760</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5">
+        <v>35438</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5">
+        <v>35034</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5">
+        <v>35065</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5">
+        <v>35419</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="5">
+        <v>36834</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="5">
+        <v>34927</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="5">
+        <v>35932</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{32210BEE-D7BD-4D8F-82EA-56C246ED4D7B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{CD5B4813-695C-4A71-8901-067E3CDC2AFE}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{9DE6861B-6FFB-477B-A115-076B4C33DFCF}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0710CA8A-F0F3-4D57-A009-A997CFC14691}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{C313CFA6-E416-437E-848B-8F3836734E66}"/>
+    <hyperlink ref="C2" r:id="rId1" display="ise1@example.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="ise2@example.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="ise3@example.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="ise5@example.com"/>
+    <hyperlink ref="C8" r:id="rId1" display="ise7@example.com"/>
+    <hyperlink ref="C10" r:id="rId1" display="ise9@example.com"/>
+    <hyperlink ref="C12" r:id="rId1" display="ise11@example.com"/>
+    <hyperlink ref="C14" r:id="rId1" display="ise13@example.com"/>
+    <hyperlink ref="C16" r:id="rId1" display="ise15@example.com"/>
+    <hyperlink ref="C18" r:id="rId1" display="ise17@example.com"/>
+    <hyperlink ref="C20" r:id="rId1" display="ise19@example.com"/>
+    <hyperlink ref="C5" r:id="rId2" display="ise4@example.com"/>
+    <hyperlink ref="C7" r:id="rId2" display="ise6@example.com"/>
+    <hyperlink ref="C9" r:id="rId2" display="ise8@example.com"/>
+    <hyperlink ref="C11" r:id="rId2" display="ise10@example.com"/>
+    <hyperlink ref="C13" r:id="rId2" display="ise12@example.com"/>
+    <hyperlink ref="C15" r:id="rId2" display="ise14@example.com"/>
+    <hyperlink ref="C17" r:id="rId2" display="ise16@example.com"/>
+    <hyperlink ref="C19" r:id="rId2" display="ise18@example.com"/>
+    <hyperlink ref="C21" r:id="rId2" display="ise20@example.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>